--- a/product-definitions/spreadsheet/iwv-lwp.xlsx
+++ b/product-definitions/spreadsheet/iwv-lwp.xlsx
@@ -12,20 +12,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="82">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -41,7 +41,7 @@
     <t>notes</t>
   </si>
   <si>
-    <t>integrated_water_vapour</t>
+    <t>integrated_water_vapor</t>
   </si>
   <si>
     <t>type</t>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>liquid_water_path</t>
-  </si>
-  <si>
-    <t>time, altitude</t>
   </si>
   <si>
     <t>g m-2</t>
@@ -339,10 +336,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -413,34 +410,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2" ht="12.0" customHeight="1"/>
     <row r="3" ht="12.0" customHeight="1"/>
@@ -1466,13 +1463,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -1486,7 +1483,7 @@
       </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1508,7 +1505,7 @@
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1518,7 +1515,7 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1588,16 +1585,16 @@
       <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="12.0" customHeight="1">
@@ -1613,7 +1610,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="12.0" customHeight="1">
@@ -1659,7 +1656,7 @@
     <row r="25" ht="12.0" customHeight="1"/>
     <row r="26" ht="12.0" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1670,7 +1667,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="12.0" customHeight="1">
@@ -1685,7 +1682,7 @@
     <row r="29" ht="12.0" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="10">
         <v>1.0</v>
@@ -1704,25 +1701,25 @@
         <v>16</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="12.0" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="33" ht="12.0" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="34" ht="12.0" customHeight="1">
@@ -1732,7 +1729,7 @@
     </row>
     <row r="35" ht="12.0" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1743,7 +1740,7 @@
         <v>10</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="12.0" customHeight="1">
@@ -1758,7 +1755,7 @@
     <row r="38" ht="12.0" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" s="10">
         <v>1.0</v>
@@ -1777,25 +1774,25 @@
         <v>16</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" ht="12.0" customHeight="1">
       <c r="A41" s="9"/>
       <c r="B41" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" ht="12.0" customHeight="1">
       <c r="A42" s="9"/>
       <c r="B42" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" ht="12.0" customHeight="1">
@@ -1805,7 +1802,7 @@
     </row>
     <row r="44" ht="12.0" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -1816,7 +1813,7 @@
         <v>10</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="12.0" customHeight="1">
@@ -1831,7 +1828,7 @@
     <row r="47" ht="12.0" customHeight="1">
       <c r="A47" s="9"/>
       <c r="B47" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" s="10">
         <v>1.0</v>
@@ -1850,25 +1847,25 @@
         <v>16</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" ht="12.0" customHeight="1">
       <c r="A50" s="9"/>
       <c r="B50" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" ht="12.0" customHeight="1">
       <c r="A51" s="9"/>
       <c r="B51" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="12.0" customHeight="1">
@@ -1878,7 +1875,7 @@
     </row>
     <row r="53" ht="12.0" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -1889,7 +1886,7 @@
         <v>10</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="12.0" customHeight="1">
@@ -1904,7 +1901,7 @@
     <row r="56" ht="12.0" customHeight="1">
       <c r="A56" s="9"/>
       <c r="B56" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" s="10">
         <v>1.0</v>
@@ -1923,25 +1920,25 @@
         <v>16</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" ht="12.0" customHeight="1">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" ht="12.0" customHeight="1">
       <c r="A60" s="9"/>
       <c r="B60" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" ht="12.0" customHeight="1">
@@ -1951,7 +1948,7 @@
     </row>
     <row r="62" ht="12.0" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -1962,7 +1959,7 @@
         <v>10</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="12.0" customHeight="1">
@@ -1977,7 +1974,7 @@
     <row r="65" ht="12.0" customHeight="1">
       <c r="A65" s="9"/>
       <c r="B65" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" s="10">
         <v>1.0</v>
@@ -1996,25 +1993,25 @@
         <v>16</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" ht="12.0" customHeight="1">
       <c r="A68" s="9"/>
       <c r="B68" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" ht="12.0" customHeight="1">
       <c r="A69" s="9"/>
       <c r="B69" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" ht="12.0" customHeight="1">
@@ -2024,7 +2021,7 @@
     </row>
     <row r="71" ht="12.0" customHeight="1">
       <c r="A71" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -2035,7 +2032,7 @@
         <v>10</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="12.0" customHeight="1">
@@ -2050,7 +2047,7 @@
     <row r="74" ht="12.0" customHeight="1">
       <c r="A74" s="9"/>
       <c r="B74" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" s="10">
         <v>1.0</v>
@@ -2069,25 +2066,25 @@
         <v>16</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" ht="12.0" customHeight="1">
       <c r="A77" s="9"/>
       <c r="B77" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" ht="12.0" customHeight="1">
       <c r="A78" s="9"/>
       <c r="B78" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" ht="12.0" customHeight="1">
@@ -2097,7 +2094,7 @@
     </row>
     <row r="80" ht="12.0" customHeight="1">
       <c r="A80" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -2108,7 +2105,7 @@
         <v>10</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="12.0" customHeight="1">
@@ -2123,7 +2120,7 @@
     <row r="83" ht="12.0" customHeight="1">
       <c r="A83" s="9"/>
       <c r="B83" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83" s="10">
         <v>1.0</v>
@@ -2142,25 +2139,25 @@
         <v>16</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" ht="12.0" customHeight="1">
       <c r="A86" s="9"/>
       <c r="B86" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" ht="12.0" customHeight="1">
       <c r="A87" s="9"/>
       <c r="B87" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" ht="12.0" customHeight="1">
@@ -2170,7 +2167,7 @@
     </row>
     <row r="89" ht="12.0" customHeight="1">
       <c r="A89" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -2181,7 +2178,7 @@
         <v>10</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" ht="12.0" customHeight="1">
@@ -2196,7 +2193,7 @@
     <row r="92" ht="12.0" customHeight="1">
       <c r="A92" s="9"/>
       <c r="B92" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" s="10">
         <v>1.0</v>
@@ -2215,25 +2212,25 @@
         <v>16</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" ht="12.0" customHeight="1">
       <c r="A95" s="9"/>
       <c r="B95" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" ht="12.0" customHeight="1">
       <c r="A96" s="9"/>
       <c r="B96" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" ht="12.0" customHeight="1">
@@ -2243,7 +2240,7 @@
     </row>
     <row r="98" ht="12.0" customHeight="1">
       <c r="A98" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -2254,7 +2251,7 @@
         <v>10</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" ht="12.0" customHeight="1">
@@ -2269,7 +2266,7 @@
     <row r="101" ht="12.0" customHeight="1">
       <c r="A101" s="9"/>
       <c r="B101" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" s="10">
         <v>1.0</v>
@@ -2288,25 +2285,25 @@
         <v>16</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" ht="12.0" customHeight="1">
       <c r="A104" s="9"/>
       <c r="B104" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" ht="12.0" customHeight="1">
       <c r="A105" s="9"/>
       <c r="B105" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" ht="12.0" customHeight="1">
@@ -2316,7 +2313,7 @@
     </row>
     <row r="107" ht="12.0" customHeight="1">
       <c r="A107" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -2327,7 +2324,7 @@
         <v>10</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" ht="12.0" customHeight="1">
@@ -2342,7 +2339,7 @@
     <row r="110" ht="12.0" customHeight="1">
       <c r="A110" s="9"/>
       <c r="B110" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C110" s="10">
         <v>1.0</v>
@@ -2361,25 +2358,25 @@
         <v>16</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" ht="12.0" customHeight="1">
       <c r="A113" s="9"/>
       <c r="B113" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" ht="12.0" customHeight="1">
       <c r="A114" s="9"/>
       <c r="B114" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" ht="12.0" customHeight="1">
@@ -2389,7 +2386,7 @@
     </row>
     <row r="116" ht="12.0" customHeight="1">
       <c r="A116" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -2400,7 +2397,7 @@
         <v>10</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" ht="12.0" customHeight="1">
@@ -2415,7 +2412,7 @@
     <row r="119" ht="12.0" customHeight="1">
       <c r="A119" s="9"/>
       <c r="B119" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C119" s="10">
         <v>1.0</v>
@@ -2434,25 +2431,25 @@
         <v>16</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="122" ht="12.0" customHeight="1">
       <c r="A122" s="9"/>
       <c r="B122" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" ht="12.0" customHeight="1">
       <c r="A123" s="9"/>
       <c r="B123" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" ht="12.0" customHeight="1">
@@ -2462,7 +2459,7 @@
     </row>
     <row r="125" ht="12.0" customHeight="1">
       <c r="A125" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -2473,7 +2470,7 @@
         <v>10</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127" ht="12.0" customHeight="1">
@@ -2488,7 +2485,7 @@
     <row r="128" ht="12.0" customHeight="1">
       <c r="A128" s="9"/>
       <c r="B128" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128" s="10">
         <v>1.0</v>
@@ -2507,25 +2504,25 @@
         <v>16</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="131" ht="12.0" customHeight="1">
       <c r="A131" s="9"/>
       <c r="B131" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="132" ht="12.0" customHeight="1">
       <c r="A132" s="9"/>
       <c r="B132" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="133" ht="12.0" customHeight="1">
@@ -2535,7 +2532,7 @@
     </row>
     <row r="134" ht="12.0" customHeight="1">
       <c r="A134" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -2546,7 +2543,7 @@
         <v>10</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" ht="12.0" customHeight="1">
@@ -2561,7 +2558,7 @@
     <row r="137" ht="12.0" customHeight="1">
       <c r="A137" s="9"/>
       <c r="B137" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C137" s="10">
         <v>1.0</v>
@@ -2580,25 +2577,25 @@
         <v>16</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="140" ht="12.0" customHeight="1">
       <c r="A140" s="9"/>
       <c r="B140" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="141" ht="12.0" customHeight="1">
       <c r="A141" s="9"/>
       <c r="B141" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" ht="12.0" customHeight="1">
@@ -2608,7 +2605,7 @@
     </row>
     <row r="143" ht="12.0" customHeight="1">
       <c r="A143" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -2619,7 +2616,7 @@
         <v>10</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="145" ht="12.0" customHeight="1">
@@ -2634,7 +2631,7 @@
     <row r="146" ht="12.0" customHeight="1">
       <c r="A146" s="9"/>
       <c r="B146" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C146" s="10">
         <v>1.0</v>
@@ -2653,25 +2650,25 @@
         <v>16</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="149" ht="12.0" customHeight="1">
       <c r="A149" s="9"/>
       <c r="B149" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="150" ht="12.0" customHeight="1">
       <c r="A150" s="9"/>
       <c r="B150" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151" ht="12.0" customHeight="1">
@@ -2681,7 +2678,7 @@
     </row>
     <row r="152" ht="12.0" customHeight="1">
       <c r="A152" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -2692,7 +2689,7 @@
         <v>10</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154" ht="12.0" customHeight="1">
@@ -2707,7 +2704,7 @@
     <row r="155" ht="12.0" customHeight="1">
       <c r="A155" s="9"/>
       <c r="B155" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C155" s="10">
         <v>1.0</v>
@@ -2726,25 +2723,25 @@
         <v>16</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="158" ht="12.0" customHeight="1">
       <c r="A158" s="9"/>
       <c r="B158" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="159" ht="12.0" customHeight="1">
       <c r="A159" s="9"/>
       <c r="B159" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="160" ht="12.0" customHeight="1">
@@ -2754,7 +2751,7 @@
     </row>
     <row r="161" ht="12.0" customHeight="1">
       <c r="A161" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -2765,7 +2762,7 @@
         <v>10</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="163" ht="12.0" customHeight="1">
@@ -2780,7 +2777,7 @@
     <row r="164" ht="12.0" customHeight="1">
       <c r="A164" s="9"/>
       <c r="B164" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C164" s="10">
         <v>1.0</v>
@@ -2799,25 +2796,25 @@
         <v>16</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="167" ht="12.0" customHeight="1">
       <c r="A167" s="9"/>
       <c r="B167" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="168" ht="12.0" customHeight="1">
       <c r="A168" s="9"/>
       <c r="B168" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="169" ht="12.0" customHeight="1">
@@ -2827,7 +2824,7 @@
     </row>
     <row r="170" ht="12.0" customHeight="1">
       <c r="A170" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
@@ -2838,7 +2835,7 @@
         <v>10</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" ht="12.0" customHeight="1">
@@ -2853,7 +2850,7 @@
     <row r="173" ht="12.0" customHeight="1">
       <c r="A173" s="9"/>
       <c r="B173" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C173" s="10">
         <v>1.0</v>
@@ -2872,25 +2869,25 @@
         <v>16</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="176" ht="12.0" customHeight="1">
       <c r="A176" s="9"/>
       <c r="B176" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="177" ht="12.0" customHeight="1">
       <c r="A177" s="9"/>
       <c r="B177" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="178" ht="12.0" customHeight="1">
@@ -2900,7 +2897,7 @@
     </row>
     <row r="179" ht="12.0" customHeight="1">
       <c r="A179" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -2911,7 +2908,7 @@
         <v>10</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="181" ht="12.0" customHeight="1">
@@ -2926,7 +2923,7 @@
     <row r="182" ht="12.0" customHeight="1">
       <c r="A182" s="9"/>
       <c r="B182" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C182" s="10">
         <v>1.0</v>
@@ -2945,25 +2942,25 @@
         <v>16</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="185" ht="12.0" customHeight="1">
       <c r="A185" s="9"/>
       <c r="B185" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="186" ht="12.0" customHeight="1">
       <c r="A186" s="9"/>
       <c r="B186" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="187" ht="12.0" customHeight="1">
@@ -2973,7 +2970,7 @@
     </row>
     <row r="188" ht="12.0" customHeight="1">
       <c r="A188" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -2984,7 +2981,7 @@
         <v>10</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="190" ht="12.0" customHeight="1">
@@ -2999,7 +2996,7 @@
     <row r="191" ht="12.0" customHeight="1">
       <c r="A191" s="9"/>
       <c r="B191" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C191" s="10">
         <v>1.0</v>
@@ -3018,25 +3015,25 @@
         <v>16</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="194" ht="12.0" customHeight="1">
       <c r="A194" s="9"/>
       <c r="B194" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="195" ht="12.0" customHeight="1">
       <c r="A195" s="9"/>
       <c r="B195" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="196" ht="12.0" customHeight="1">
@@ -3046,7 +3043,7 @@
     </row>
     <row r="197" ht="12.0" customHeight="1">
       <c r="A197" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -3057,7 +3054,7 @@
         <v>10</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="199" ht="12.0" customHeight="1">
@@ -3072,7 +3069,7 @@
     <row r="200" ht="12.0" customHeight="1">
       <c r="A200" s="9"/>
       <c r="B200" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C200" s="10">
         <v>1.0</v>
@@ -3091,25 +3088,25 @@
         <v>16</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="203" ht="12.0" customHeight="1">
       <c r="A203" s="9"/>
       <c r="B203" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="204" ht="12.0" customHeight="1">
       <c r="A204" s="9"/>
       <c r="B204" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="205" ht="12.0" customHeight="1"/>
